--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_a.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_a.xlsx
@@ -84,7 +84,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sophia")] Alright, I shall be substituting for Dobermann today. This will be an “interesting” combat training. Ready?
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sophia")] Alright, I shall be substituting for Dobermann today. This will be an 'interesting' combat training. Ready?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_a.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_a.xlsx
@@ -88,7 +88,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_scave")] So it’s a simulation of a Kazimierz knight competition... Fighting against great odds in a man-made landscape really does fit their style.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_scave")] So it's a simulation of a Kazimierz knight competition... Fighting against great odds in a man-made landscape really does fit their style.
 </t>
   </si>
   <si>
@@ -96,11 +96,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_wyvern")] They’re just fans of knight sports making a cameo here. Look, even this gloompincer here——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sophia")] That is an honest-to-god gloompincer, you know. Even though they’re raised through far more humane methods in Rhodes Island.. They can still easily cleave through armor.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_wyvern")] They're just fans of knight sports making a cameo here. Look, even this gloompincer here——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sophia")] That is an honest-to-god gloompincer, you know. Even though they're raised through far more humane methods in Rhodes Island.. They can still easily cleave through armor.
 </t>
   </si>
   <si>
@@ -108,7 +108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frostl")] Oh, come on. I’ll deal with it!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_frostl")] Oh, come on. I'll deal with it!
 </t>
   </si>
   <si>
